--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/15 Doapura Khal/Doapara_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/15 Doapura Khal/Doapara_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Raw_Cross_Section_Data!#REF!</definedName>
@@ -87,9 +86,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>DC8-0000</t>
   </si>
   <si>
     <t>GL</t>
@@ -242,12 +238,6 @@
   </si>
   <si>
     <t>Office of The Superintending Engineer,Design Circle-5</t>
-  </si>
-  <si>
-    <t>(Md.Mostofa Kamal),AE</t>
-  </si>
-  <si>
-    <t>(Kamrul Hasan),EE</t>
   </si>
   <si>
     <t>(Jakaria Pervez),SE</t>
@@ -442,6 +432,15 @@
   </si>
   <si>
     <t>Re-excavation of Doapara Khal from km. 0.000 to km. 1.404in polder -2  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
+  </si>
+  <si>
+    <t>(Md.Mostafa Kamal),AE</t>
+  </si>
+  <si>
+    <t>(MD.Kamrul Hasan),EE</t>
+  </si>
+  <si>
+    <t>DC5-0000</t>
   </si>
 </sst>
 </file>
@@ -739,24 +738,24 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -842,9 +841,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$5:$B$18</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$5:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -893,9 +892,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$5:$C$18</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$5:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.89300000000000002</c:v>
@@ -965,12 +964,98 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$5:$I$18</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$5:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.145499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.645499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.220499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$5:$J$18</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$5:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -988,11 +1073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152702976"/>
-        <c:axId val="152704512"/>
+        <c:axId val="147395712"/>
+        <c:axId val="147397248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152702976"/>
+        <c:axId val="147395712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1009,7 +1094,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1038,12 +1123,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152704512"/>
+        <c:crossAx val="147397248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152704512"/>
+        <c:axId val="147397248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1144,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1088,7 +1173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152702976"/>
+        <c:crossAx val="147395712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1188,9 +1273,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$192:$B$208</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$192:$B$208</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1248,9 +1333,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$192:$C$208</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$192:$C$208</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-1.421</c:v>
@@ -1329,12 +1414,86 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$192:$I$208</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$192:$I$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$192:$J$208</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$192:$J$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="6">
+                  <c:v>-1.421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1352,11 +1511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205042816"/>
-        <c:axId val="205044352"/>
+        <c:axId val="147625088"/>
+        <c:axId val="147626624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205042816"/>
+        <c:axId val="147625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,7 +1532,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1402,12 +1561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205044352"/>
+        <c:crossAx val="147626624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205044352"/>
+        <c:axId val="147626624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1582,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1452,7 +1611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205042816"/>
+        <c:crossAx val="147625088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1552,9 +1711,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$211:$B$224</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$211:$B$224</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1600,9 +1759,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$211:$C$224</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$211:$C$224</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.29399999999999998</c:v>
@@ -1669,12 +1828,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$211:$I$224</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$211:$I$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$211:$J$224</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$211:$J$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.309</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1692,11 +1907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205221888"/>
-        <c:axId val="205223424"/>
+        <c:axId val="147692928"/>
+        <c:axId val="150807680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205221888"/>
+        <c:axId val="147692928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1713,7 +1928,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1742,12 +1957,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205223424"/>
+        <c:crossAx val="150807680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205223424"/>
+        <c:axId val="150807680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1978,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1792,7 +2007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205221888"/>
+        <c:crossAx val="147692928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1892,9 +2107,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$226:$B$240</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$226:$B$240</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1943,9 +2158,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$226:$C$240</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$226:$C$240</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.34300000000000003</c:v>
@@ -2015,12 +2230,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$227:$I$240</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$227:$I$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.944499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$227:$J$240</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$227:$J$240</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2038,11 +2309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205298304"/>
-        <c:axId val="205316480"/>
+        <c:axId val="195291008"/>
+        <c:axId val="195292544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205298304"/>
+        <c:axId val="195291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2059,7 +2330,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2088,12 +2359,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205316480"/>
+        <c:crossAx val="195292544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205316480"/>
+        <c:axId val="195292544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2380,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2138,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205298304"/>
+        <c:crossAx val="195291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2238,9 +2509,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$242:$B$255</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$242:$B$255</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2286,9 +2557,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$242:$C$255</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$242:$C$255</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.43099999999999999</c:v>
@@ -2355,12 +2626,62 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$242:$I$255</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$242:$I$255</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.657499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.157499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.657499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.748999999999999</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$242:$J$255</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$242:$J$255</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="7">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2378,11 +2699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206071296"/>
-        <c:axId val="206072832"/>
+        <c:axId val="209142144"/>
+        <c:axId val="209143680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206071296"/>
+        <c:axId val="209142144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2399,7 +2720,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2428,12 +2749,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206072832"/>
+        <c:crossAx val="209143680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206072832"/>
+        <c:axId val="209143680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2770,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2478,7 +2799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206071296"/>
+        <c:crossAx val="209142144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2578,9 +2899,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$258:$B$281</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$258:$B$281</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2659,9 +2980,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$258:$C$281</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$258:$C$281</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.441</c:v>
@@ -2761,12 +3082,122 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$258:$I$281</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$258:$I$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.621500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.121500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.621500000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$258:$J$281</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$258:$J$281</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="7">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.80400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2784,11 +3215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206083584"/>
-        <c:axId val="206085120"/>
+        <c:axId val="209538432"/>
+        <c:axId val="209544320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206083584"/>
+        <c:axId val="209538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2805,7 +3236,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2834,12 +3265,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206085120"/>
+        <c:crossAx val="209544320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206085120"/>
+        <c:axId val="209544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +3286,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2884,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206083584"/>
+        <c:crossAx val="209538432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2984,9 +3415,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$285:$B$306</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$285:$B$306</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3044,9 +3475,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$285:$C$306</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$285:$C$306</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.84099999999999997</c:v>
@@ -3125,12 +3556,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$285:$I$306</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$285:$I$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.3565</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.3565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.671500000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$285:$J$306</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$285:$J$306</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="7">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3148,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214512000"/>
-        <c:axId val="214513536"/>
+        <c:axId val="217126784"/>
+        <c:axId val="217128320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214512000"/>
+        <c:axId val="217126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3169,7 +3668,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3198,12 +3697,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214513536"/>
+        <c:crossAx val="217128320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214513536"/>
+        <c:axId val="217128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3718,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3248,7 +3747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214512000"/>
+        <c:crossAx val="217126784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3348,9 +3847,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$22:$B$39</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$22:$B$39</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3411,9 +3910,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$22:$C$39</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$22:$C$39</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>-0.77600000000000002</c:v>
@@ -3495,12 +3994,92 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$23:$I$39</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$23:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.852</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$23:$J$39</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$23:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.77100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3518,11 +4097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152713856"/>
-        <c:axId val="152736128"/>
+        <c:axId val="209960320"/>
+        <c:axId val="239994752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152713856"/>
+        <c:axId val="209960320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3539,7 +4118,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3568,12 +4147,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152736128"/>
+        <c:crossAx val="239994752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152736128"/>
+        <c:axId val="239994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +4168,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3618,7 +4197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152713856"/>
+        <c:crossAx val="209960320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3718,9 +4297,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$43:$B$62</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$43:$B$62</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3766,9 +4345,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$43:$C$62</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$43:$C$62</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.36699999999999999</c:v>
@@ -3835,12 +4414,74 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$43:$I$62</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$43:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.077999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.730999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$43:$J$62</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$43:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="6">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3858,11 +4499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152843776"/>
-        <c:axId val="152845312"/>
+        <c:axId val="241692032"/>
+        <c:axId val="242095232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152843776"/>
+        <c:axId val="241692032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3879,7 +4520,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3908,12 +4549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152845312"/>
+        <c:crossAx val="242095232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152845312"/>
+        <c:axId val="242095232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +4570,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3958,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152843776"/>
+        <c:crossAx val="241692032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4058,9 +4699,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$66:$B$79</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$66:$B$79</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4106,9 +4747,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$66:$C$79</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$66:$C$79</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.193</c:v>
@@ -4175,12 +4816,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$66:$I$79</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$66:$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.8245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.8245</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.503500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$66:$J$79</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$66:$J$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4198,11 +4895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153158016"/>
-        <c:axId val="153159552"/>
+        <c:axId val="243577216"/>
+        <c:axId val="243584000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153158016"/>
+        <c:axId val="243577216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4219,7 +4916,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4248,12 +4945,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153159552"/>
+        <c:crossAx val="243584000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153159552"/>
+        <c:axId val="243584000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,7 +4966,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4298,7 +4995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153158016"/>
+        <c:crossAx val="243577216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4398,9 +5095,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$82:$B$97</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$82:$B$97</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4455,9 +5152,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$82:$C$97</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$82:$C$97</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.35899999999999999</c:v>
@@ -4533,12 +5230,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$83:$I$97</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$83:$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$83:$J$97</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$83:$J$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.96599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4556,11 +5321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153242624"/>
-        <c:axId val="153244416"/>
+        <c:axId val="147055744"/>
+        <c:axId val="147057280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153242624"/>
+        <c:axId val="147055744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4577,7 +5342,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4606,12 +5371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153244416"/>
+        <c:crossAx val="147057280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153244416"/>
+        <c:axId val="147057280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,7 +5392,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4656,7 +5421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153242624"/>
+        <c:crossAx val="147055744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4756,9 +5521,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$101:$B$124</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$101:$B$124</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4813,9 +5578,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$101:$C$124</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$101:$C$124</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-2.0259999999999998</c:v>
@@ -4891,12 +5656,98 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$101:$I$124</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$101:$I$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$101:$J$124</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$101:$J$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="4">
+                  <c:v>-2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -4914,11 +5765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153279104"/>
-        <c:axId val="153379200"/>
+        <c:axId val="147403520"/>
+        <c:axId val="147405056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153279104"/>
+        <c:axId val="147403520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4935,7 +5786,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4964,12 +5815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153379200"/>
+        <c:crossAx val="147405056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153379200"/>
+        <c:axId val="147405056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4985,7 +5836,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5014,7 +5865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153279104"/>
+        <c:crossAx val="147403520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5114,9 +5965,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$129:$B$145</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$129:$B$145</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5174,9 +6025,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$129:$C$145</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$129:$C$145</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-1.266</c:v>
@@ -5255,12 +6106,92 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$130:$I$145</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$130:$I$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$130:$J$145</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$130:$J$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.86599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.52600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5278,11 +6209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153408256"/>
-        <c:axId val="153409792"/>
+        <c:axId val="147437824"/>
+        <c:axId val="147460096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153408256"/>
+        <c:axId val="147437824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5299,7 +6230,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -5328,12 +6259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153409792"/>
+        <c:crossAx val="147460096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153409792"/>
+        <c:axId val="147460096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +6280,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5378,7 +6309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153408256"/>
+        <c:crossAx val="147437824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5478,9 +6409,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$149:$B$164</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$149:$B$164</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5532,9 +6463,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$149:$C$164</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$149:$C$164</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-1.282</c:v>
@@ -5607,12 +6538,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$149:$I$164</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$149:$I$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4945000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.9945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.4945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.566500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$149:$J$164</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$149:$J$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="6">
+                  <c:v>-1.282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5630,11 +6629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153558400"/>
-        <c:axId val="153592960"/>
+        <c:axId val="147472768"/>
+        <c:axId val="147474304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153558400"/>
+        <c:axId val="147472768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5651,7 +6650,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -5680,12 +6679,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153592960"/>
+        <c:crossAx val="147474304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153592960"/>
+        <c:axId val="147474304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5701,7 +6700,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5730,7 +6729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153558400"/>
+        <c:crossAx val="147472768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5830,9 +6829,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$B$167:$B$188</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$B$167:$B$188</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5884,9 +6883,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$C$167:$C$188</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$C$167:$C$188</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.29799999999999999</c:v>
@@ -5959,12 +6958,80 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$I$167:$I$188</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$I$167:$I$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Doapura khal-1 (Data)'!$J$167:$J$188</c:f>
+              <c:f>'[1]Doapura khal-1 (Data)'!$J$167:$J$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="7">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2430000000000001</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -5982,11 +7049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153644032"/>
-        <c:axId val="153674496"/>
+        <c:axId val="147484032"/>
+        <c:axId val="147485824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153644032"/>
+        <c:axId val="147484032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6003,7 +7070,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6032,12 +7099,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153674496"/>
+        <c:crossAx val="147485824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153674496"/>
+        <c:axId val="147485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6053,7 +7120,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6082,7 +7149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153644032"/>
+        <c:crossAx val="147484032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6156,7 +7223,7 @@
         <xdr:cNvPr id="28" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6194,7 +7261,7 @@
         <xdr:cNvPr id="29" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6232,7 +7299,7 @@
         <xdr:cNvPr id="30" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6270,7 +7337,7 @@
         <xdr:cNvPr id="31" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,7 +7375,7 @@
         <xdr:cNvPr id="32" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6346,7 +7413,7 @@
         <xdr:cNvPr id="33" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6384,7 +7451,7 @@
         <xdr:cNvPr id="34" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6422,7 +7489,7 @@
         <xdr:cNvPr id="35" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6460,7 +7527,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6498,7 +7565,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6536,7 +7603,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6574,7 +7641,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6612,7 +7679,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E47E8D02-FBB4-474F-BCC7-0182E93F17BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6650,7 +7717,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,7 +7755,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6712,2038 +7779,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Long section Dhulorujir khal"/>
-      <sheetName val="Offtake khal"/>
-      <sheetName val="Outfall khal"/>
-      <sheetName val="Dhulorujir khal"/>
-      <sheetName val="Abstract of earth"/>
-      <sheetName val="Dhulorujir khal (data)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>1.097</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0840000000000001</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>1.097</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>10</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0720000000000001</v>
-          </cell>
-          <cell r="I7">
-            <v>5</v>
-          </cell>
-          <cell r="J7">
-            <v>1.0840000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>12</v>
-          </cell>
-          <cell r="C8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>10</v>
-          </cell>
-          <cell r="J8">
-            <v>1.0720000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>14</v>
-          </cell>
-          <cell r="C9">
-            <v>-0.70299999999999996</v>
-          </cell>
-          <cell r="I9">
-            <v>12</v>
-          </cell>
-          <cell r="J9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>16</v>
-          </cell>
-          <cell r="C10">
-            <v>-1.145</v>
-          </cell>
-          <cell r="I10">
-            <v>14.9955</v>
-          </cell>
-          <cell r="J10">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>18</v>
-          </cell>
-          <cell r="C11">
-            <v>-1.252</v>
-          </cell>
-          <cell r="I11">
-            <v>17.4955</v>
-          </cell>
-          <cell r="J11">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>20</v>
-          </cell>
-          <cell r="C12">
-            <v>-1.1479999999999999</v>
-          </cell>
-          <cell r="I12">
-            <v>19.9955</v>
-          </cell>
-          <cell r="J12">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>22</v>
-          </cell>
-          <cell r="C13">
-            <v>-0.66100000000000003</v>
-          </cell>
-          <cell r="I13">
-            <v>21.945499999999999</v>
-          </cell>
-          <cell r="J13">
-            <v>-0.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>24</v>
-          </cell>
-          <cell r="C14">
-            <v>0.30199999999999999</v>
-          </cell>
-          <cell r="I14">
-            <v>22</v>
-          </cell>
-          <cell r="J14">
-            <v>-0.66100000000000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>26</v>
-          </cell>
-          <cell r="C15">
-            <v>1.2350000000000001</v>
-          </cell>
-          <cell r="I15">
-            <v>24</v>
-          </cell>
-          <cell r="J15">
-            <v>0.30199999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>30</v>
-          </cell>
-          <cell r="C16">
-            <v>1.2290000000000001</v>
-          </cell>
-          <cell r="I16">
-            <v>26</v>
-          </cell>
-          <cell r="J16">
-            <v>1.2350000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>35</v>
-          </cell>
-          <cell r="C17">
-            <v>1.222</v>
-          </cell>
-          <cell r="I17">
-            <v>30</v>
-          </cell>
-          <cell r="J17">
-            <v>1.2290000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>40</v>
-          </cell>
-          <cell r="C18">
-            <v>1.2090000000000001</v>
-          </cell>
-          <cell r="I18">
-            <v>35</v>
-          </cell>
-          <cell r="J18">
-            <v>1.222</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0.755</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>5</v>
-          </cell>
-          <cell r="C23">
-            <v>0.748</v>
-          </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0.755</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>10</v>
-          </cell>
-          <cell r="C24">
-            <v>0.73499999999999999</v>
-          </cell>
-          <cell r="I24">
-            <v>5</v>
-          </cell>
-          <cell r="J24">
-            <v>0.748</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>11</v>
-          </cell>
-          <cell r="C25">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I25">
-            <v>10</v>
-          </cell>
-          <cell r="J25">
-            <v>0.73499999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>13</v>
-          </cell>
-          <cell r="C26">
-            <v>-0.29099999999999998</v>
-          </cell>
-          <cell r="I26">
-            <v>11</v>
-          </cell>
-          <cell r="J26">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>15</v>
-          </cell>
-          <cell r="C27">
-            <v>-0.52500000000000002</v>
-          </cell>
-          <cell r="I27">
-            <v>13</v>
-          </cell>
-          <cell r="J27">
-            <v>-0.29099999999999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>17</v>
-          </cell>
-          <cell r="C28">
-            <v>-0.75</v>
-          </cell>
-          <cell r="I28">
-            <v>15</v>
-          </cell>
-          <cell r="J28">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>19</v>
-          </cell>
-          <cell r="C29">
-            <v>-0.85699999999999998</v>
-          </cell>
-          <cell r="I29">
-            <v>17.212499999999999</v>
-          </cell>
-          <cell r="J29">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>21</v>
-          </cell>
-          <cell r="C30">
-            <v>-0.752</v>
-          </cell>
-          <cell r="I30">
-            <v>19.712499999999999</v>
-          </cell>
-          <cell r="J30">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>23</v>
-          </cell>
-          <cell r="C31">
-            <v>-0.53400000000000003</v>
-          </cell>
-          <cell r="I31">
-            <v>22.212499999999999</v>
-          </cell>
-          <cell r="J31">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>25</v>
-          </cell>
-          <cell r="C32">
-            <v>-0.28899999999999998</v>
-          </cell>
-          <cell r="I32">
-            <v>24.762499999999999</v>
-          </cell>
-          <cell r="J32">
-            <v>-0.3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>27</v>
-          </cell>
-          <cell r="C33">
-            <v>0.10199999999999999</v>
-          </cell>
-          <cell r="I33">
-            <v>25</v>
-          </cell>
-          <cell r="J33">
-            <v>-0.28899999999999998</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>28</v>
-          </cell>
-          <cell r="C34">
-            <v>1.0089999999999999</v>
-          </cell>
-          <cell r="I34">
-            <v>27</v>
-          </cell>
-          <cell r="J34">
-            <v>0.10199999999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>33</v>
-          </cell>
-          <cell r="C35">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="I35">
-            <v>28</v>
-          </cell>
-          <cell r="J35">
-            <v>1.0089999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>38</v>
-          </cell>
-          <cell r="C36">
-            <v>0.98299999999999998</v>
-          </cell>
-          <cell r="I36">
-            <v>33</v>
-          </cell>
-          <cell r="J36">
-            <v>0.98799999999999999</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>43</v>
-          </cell>
-          <cell r="C37">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="I37">
-            <v>38</v>
-          </cell>
-          <cell r="J37">
-            <v>0.98299999999999998</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>0.69299999999999995</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>5</v>
-          </cell>
-          <cell r="C42">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>10</v>
-          </cell>
-          <cell r="C43">
-            <v>0.67200000000000004</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>11</v>
-          </cell>
-          <cell r="C44">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>13</v>
-          </cell>
-          <cell r="C45">
-            <v>-0.19600000000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>15</v>
-          </cell>
-          <cell r="C46">
-            <v>-0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>17</v>
-          </cell>
-          <cell r="C47">
-            <v>-0.4698</v>
-          </cell>
-          <cell r="I47">
-            <v>0</v>
-          </cell>
-          <cell r="J47">
-            <v>0.69299999999999995</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>19</v>
-          </cell>
-          <cell r="C48">
-            <v>-0.59799999999999998</v>
-          </cell>
-          <cell r="I48">
-            <v>5</v>
-          </cell>
-          <cell r="J48">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>21</v>
-          </cell>
-          <cell r="C49">
-            <v>-0.497</v>
-          </cell>
-          <cell r="I49">
-            <v>10</v>
-          </cell>
-          <cell r="J49">
-            <v>0.67200000000000004</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>23</v>
-          </cell>
-          <cell r="C50">
-            <v>-0.38200000000000001</v>
-          </cell>
-          <cell r="I50">
-            <v>11</v>
-          </cell>
-          <cell r="J50">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>25</v>
-          </cell>
-          <cell r="C51">
-            <v>-0.20200000000000001</v>
-          </cell>
-          <cell r="I51">
-            <v>13</v>
-          </cell>
-          <cell r="J51">
-            <v>-0.19600000000000001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>27</v>
-          </cell>
-          <cell r="C52">
-            <v>9.9000000000000005E-2</v>
-          </cell>
-          <cell r="I52">
-            <v>15.706</v>
-          </cell>
-          <cell r="J52">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>28</v>
-          </cell>
-          <cell r="C53">
-            <v>0.77300000000000002</v>
-          </cell>
-          <cell r="I53">
-            <v>18.206</v>
-          </cell>
-          <cell r="J53">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>33</v>
-          </cell>
-          <cell r="C54">
-            <v>0.78500000000000003</v>
-          </cell>
-          <cell r="I54">
-            <v>20.706</v>
-          </cell>
-          <cell r="J54">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>38</v>
-          </cell>
-          <cell r="C55">
-            <v>0.79800000000000004</v>
-          </cell>
-          <cell r="I55">
-            <v>23.180999999999997</v>
-          </cell>
-          <cell r="J55">
-            <v>-0.35</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>43</v>
-          </cell>
-          <cell r="C56">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="I56">
-            <v>25</v>
-          </cell>
-          <cell r="J56">
-            <v>-0.20200000000000001</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>27</v>
-          </cell>
-          <cell r="J57">
-            <v>9.9000000000000005E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58">
-            <v>28</v>
-          </cell>
-          <cell r="J58">
-            <v>0.77300000000000002</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59">
-            <v>33</v>
-          </cell>
-          <cell r="J59">
-            <v>0.78500000000000003</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60">
-            <v>38</v>
-          </cell>
-          <cell r="J60">
-            <v>0.79800000000000004</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61">
-            <v>43</v>
-          </cell>
-          <cell r="J61">
-            <v>0.80400000000000005</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>0</v>
-          </cell>
-          <cell r="C65">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>2</v>
-          </cell>
-          <cell r="C66">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>5</v>
-          </cell>
-          <cell r="C67">
-            <v>1.8640000000000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>6</v>
-          </cell>
-          <cell r="C68">
-            <v>1.853</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>7</v>
-          </cell>
-          <cell r="C69">
-            <v>0.84099999999999997</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>9</v>
-          </cell>
-          <cell r="C70">
-            <v>0.17199999999999999</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>11</v>
-          </cell>
-          <cell r="C71">
-            <v>-0.33500000000000002</v>
-          </cell>
-          <cell r="I71">
-            <v>0</v>
-          </cell>
-          <cell r="J71">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>13</v>
-          </cell>
-          <cell r="C72">
-            <v>-0.64700000000000002</v>
-          </cell>
-          <cell r="I72">
-            <v>2</v>
-          </cell>
-          <cell r="J72">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>15</v>
-          </cell>
-          <cell r="C73">
-            <v>-0.749</v>
-          </cell>
-          <cell r="I73">
-            <v>5</v>
-          </cell>
-          <cell r="J73">
-            <v>1.8640000000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>17</v>
-          </cell>
-          <cell r="C74">
-            <v>-0.64800000000000002</v>
-          </cell>
-          <cell r="I74">
-            <v>6</v>
-          </cell>
-          <cell r="J74">
-            <v>1.853</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>19</v>
-          </cell>
-          <cell r="C75">
-            <v>-0.34799999999999998</v>
-          </cell>
-          <cell r="I75">
-            <v>7</v>
-          </cell>
-          <cell r="J75">
-            <v>0.84099999999999997</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>21</v>
-          </cell>
-          <cell r="C76">
-            <v>-2.7E-2</v>
-          </cell>
-          <cell r="I76">
-            <v>9</v>
-          </cell>
-          <cell r="J76">
-            <v>0.17199999999999999</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>23</v>
-          </cell>
-          <cell r="C77">
-            <v>0.46600000000000003</v>
-          </cell>
-          <cell r="I77">
-            <v>12.257999999999999</v>
-          </cell>
-          <cell r="J77">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>24</v>
-          </cell>
-          <cell r="C78">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="I78">
-            <v>14.757999999999999</v>
-          </cell>
-          <cell r="J78">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>30</v>
-          </cell>
-          <cell r="C79">
-            <v>0.94</v>
-          </cell>
-          <cell r="I79">
-            <v>17.257999999999999</v>
-          </cell>
-          <cell r="J79">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>35</v>
-          </cell>
-          <cell r="C80">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="I80">
-            <v>20.107999999999997</v>
-          </cell>
-          <cell r="J80">
-            <v>-0.1</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>0</v>
-          </cell>
-          <cell r="C83">
-            <v>0.872</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>5</v>
-          </cell>
-          <cell r="C84">
-            <v>0.86499999999999999</v>
-          </cell>
-          <cell r="I84">
-            <v>5</v>
-          </cell>
-          <cell r="J84">
-            <v>0.86499999999999999</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>10</v>
-          </cell>
-          <cell r="C85">
-            <v>0.85299999999999998</v>
-          </cell>
-          <cell r="I85">
-            <v>10</v>
-          </cell>
-          <cell r="J85">
-            <v>0.85299999999999998</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>12</v>
-          </cell>
-          <cell r="C86">
-            <v>0.17</v>
-          </cell>
-          <cell r="I86">
-            <v>11</v>
-          </cell>
-          <cell r="J86">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>14</v>
-          </cell>
-          <cell r="C87">
-            <v>-0.23699999999999999</v>
-          </cell>
-          <cell r="I87">
-            <v>14.75</v>
-          </cell>
-          <cell r="J87">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>17</v>
-          </cell>
-          <cell r="C88">
-            <v>-0.33300000000000002</v>
-          </cell>
-          <cell r="I88">
-            <v>17.25</v>
-          </cell>
-          <cell r="J88">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>20</v>
-          </cell>
-          <cell r="C89">
-            <v>-0.22800000000000001</v>
-          </cell>
-          <cell r="I89">
-            <v>19.75</v>
-          </cell>
-          <cell r="J89">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>22</v>
-          </cell>
-          <cell r="C90">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="I90">
-            <v>24.215499999999999</v>
-          </cell>
-          <cell r="J90">
-            <v>0.97699999999999998</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>24</v>
-          </cell>
-          <cell r="C91">
-            <v>0.97699999999999998</v>
-          </cell>
-          <cell r="I91">
-            <v>30</v>
-          </cell>
-          <cell r="J91">
-            <v>0.96499999999999997</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>30</v>
-          </cell>
-          <cell r="C92">
-            <v>0.96499999999999997</v>
-          </cell>
-          <cell r="I92">
-            <v>35</v>
-          </cell>
-          <cell r="J92">
-            <v>0.98299999999999998</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>35</v>
-          </cell>
-          <cell r="C93">
-            <v>0.98299999999999998</v>
-          </cell>
-          <cell r="I93">
-            <v>40</v>
-          </cell>
-          <cell r="J93">
-            <v>0.99199999999999999</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>40</v>
-          </cell>
-          <cell r="C94">
-            <v>0.99199999999999999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>0</v>
-          </cell>
-          <cell r="C97">
-            <v>0.91900000000000004</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>5</v>
-          </cell>
-          <cell r="C98">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>10</v>
-          </cell>
-          <cell r="C99">
-            <v>0.90500000000000003</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>12</v>
-          </cell>
-          <cell r="C100">
-            <v>0.27900000000000003</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>14</v>
-          </cell>
-          <cell r="C101">
-            <v>-0.115</v>
-          </cell>
-          <cell r="I101">
-            <v>0</v>
-          </cell>
-          <cell r="J101">
-            <v>0.91900000000000004</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>16</v>
-          </cell>
-          <cell r="C102">
-            <v>-0.42199999999999999</v>
-          </cell>
-          <cell r="I102">
-            <v>5</v>
-          </cell>
-          <cell r="J102">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>18</v>
-          </cell>
-          <cell r="C103">
-            <v>-0.53400000000000003</v>
-          </cell>
-          <cell r="I103">
-            <v>10</v>
-          </cell>
-          <cell r="J103">
-            <v>0.90500000000000003</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>20</v>
-          </cell>
-          <cell r="C104">
-            <v>-0.43099999999999999</v>
-          </cell>
-          <cell r="I104">
-            <v>12</v>
-          </cell>
-          <cell r="J104">
-            <v>0.27900000000000003</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>22</v>
-          </cell>
-          <cell r="C105">
-            <v>-0.122</v>
-          </cell>
-          <cell r="I105">
-            <v>15.4185</v>
-          </cell>
-          <cell r="J105">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>24</v>
-          </cell>
-          <cell r="C106">
-            <v>0.25800000000000001</v>
-          </cell>
-          <cell r="I106">
-            <v>17.918500000000002</v>
-          </cell>
-          <cell r="J106">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>26</v>
-          </cell>
-          <cell r="C107">
-            <v>1.08</v>
-          </cell>
-          <cell r="I107">
-            <v>20.418500000000002</v>
-          </cell>
-          <cell r="J107">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>30</v>
-          </cell>
-          <cell r="C108">
-            <v>1.069</v>
-          </cell>
-          <cell r="I108">
-            <v>23.718500000000002</v>
-          </cell>
-          <cell r="J108">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>35</v>
-          </cell>
-          <cell r="C109">
-            <v>1.0640000000000001</v>
-          </cell>
-          <cell r="I109">
-            <v>24</v>
-          </cell>
-          <cell r="J109">
-            <v>0.25800000000000001</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>40</v>
-          </cell>
-          <cell r="C110">
-            <v>1.056</v>
-          </cell>
-          <cell r="I110">
-            <v>26</v>
-          </cell>
-          <cell r="J110">
-            <v>1.08</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>0</v>
-          </cell>
-          <cell r="C113">
-            <v>0.88500000000000001</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>5</v>
-          </cell>
-          <cell r="C114">
-            <v>0.879</v>
-          </cell>
-          <cell r="I114">
-            <v>5</v>
-          </cell>
-          <cell r="J114">
-            <v>0.879</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>10</v>
-          </cell>
-          <cell r="C115">
-            <v>0.874</v>
-          </cell>
-          <cell r="I115">
-            <v>10</v>
-          </cell>
-          <cell r="J115">
-            <v>0.874</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>11</v>
-          </cell>
-          <cell r="C116">
-            <v>0.16900000000000001</v>
-          </cell>
-          <cell r="I116">
-            <v>11</v>
-          </cell>
-          <cell r="J116">
-            <v>0.16900000000000001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>13</v>
-          </cell>
-          <cell r="C117">
-            <v>-0.32200000000000001</v>
-          </cell>
-          <cell r="I117">
-            <v>11.5</v>
-          </cell>
-          <cell r="J117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>15</v>
-          </cell>
-          <cell r="C118">
-            <v>-0.622</v>
-          </cell>
-          <cell r="I118">
-            <v>14.5</v>
-          </cell>
-          <cell r="J118">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>17</v>
-          </cell>
-          <cell r="C119">
-            <v>-0.72599999999999998</v>
-          </cell>
-          <cell r="I119">
-            <v>17</v>
-          </cell>
-          <cell r="J119">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>19</v>
-          </cell>
-          <cell r="C120">
-            <v>-0.621</v>
-          </cell>
-          <cell r="I120">
-            <v>19.5</v>
-          </cell>
-          <cell r="J120">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>21</v>
-          </cell>
-          <cell r="C121">
-            <v>-0.31</v>
-          </cell>
-          <cell r="I121">
-            <v>22.574999999999999</v>
-          </cell>
-          <cell r="J121">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>23</v>
-          </cell>
-          <cell r="C122">
-            <v>0.153</v>
-          </cell>
-          <cell r="I122">
-            <v>23</v>
-          </cell>
-          <cell r="J122">
-            <v>0.153</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>24</v>
-          </cell>
-          <cell r="C123">
-            <v>1.8740000000000001</v>
-          </cell>
-          <cell r="I123">
-            <v>24</v>
-          </cell>
-          <cell r="J123">
-            <v>1.8740000000000001</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>25</v>
-          </cell>
-          <cell r="C124">
-            <v>1.865</v>
-          </cell>
-          <cell r="I124">
-            <v>25</v>
-          </cell>
-          <cell r="J124">
-            <v>1.865</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>26</v>
-          </cell>
-          <cell r="C125">
-            <v>0.47399999999999998</v>
-          </cell>
-          <cell r="I125">
-            <v>26</v>
-          </cell>
-          <cell r="J125">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>28</v>
-          </cell>
-          <cell r="C126">
-            <v>-0.34599999999999997</v>
-          </cell>
-          <cell r="I126">
-            <v>28</v>
-          </cell>
-          <cell r="J126">
-            <v>-0.34599999999999997</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>0</v>
-          </cell>
-          <cell r="C129">
-            <v>0.627</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>5</v>
-          </cell>
-          <cell r="C130">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>10</v>
-          </cell>
-          <cell r="C131">
-            <v>0.60799999999999998</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>11</v>
-          </cell>
-          <cell r="C132">
-            <v>-0.18</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>13</v>
-          </cell>
-          <cell r="C133">
-            <v>-0.56799999999999995</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>15</v>
-          </cell>
-          <cell r="C134">
-            <v>-0.77100000000000002</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>17</v>
-          </cell>
-          <cell r="C135">
-            <v>-0.873</v>
-          </cell>
-          <cell r="I135">
-            <v>0</v>
-          </cell>
-          <cell r="J135">
-            <v>0.627</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>19</v>
-          </cell>
-          <cell r="C136">
-            <v>-0.76800000000000002</v>
-          </cell>
-          <cell r="I136">
-            <v>5</v>
-          </cell>
-          <cell r="J136">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>21</v>
-          </cell>
-          <cell r="C137">
-            <v>-0.56200000000000006</v>
-          </cell>
-          <cell r="I137">
-            <v>10</v>
-          </cell>
-          <cell r="J137">
-            <v>0.60799999999999998</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>23</v>
-          </cell>
-          <cell r="C138">
-            <v>0.23200000000000001</v>
-          </cell>
-          <cell r="I138">
-            <v>11</v>
-          </cell>
-          <cell r="J138">
-            <v>-0.18</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>24</v>
-          </cell>
-          <cell r="C139">
-            <v>1.62</v>
-          </cell>
-          <cell r="I139">
-            <v>13.73</v>
-          </cell>
-          <cell r="J139">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>25</v>
-          </cell>
-          <cell r="C140">
-            <v>1.611</v>
-          </cell>
-          <cell r="I140">
-            <v>16.23</v>
-          </cell>
-          <cell r="J140">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>26</v>
-          </cell>
-          <cell r="C141">
-            <v>0.60740000000000005</v>
-          </cell>
-          <cell r="I141">
-            <v>18.73</v>
-          </cell>
-          <cell r="J141">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>28</v>
-          </cell>
-          <cell r="C142">
-            <v>-7.0999999999999994E-2</v>
-          </cell>
-          <cell r="I142">
-            <v>20.755000000000003</v>
-          </cell>
-          <cell r="J142">
-            <v>-0.65</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="I143">
-            <v>21</v>
-          </cell>
-          <cell r="J143">
-            <v>-0.56200000000000006</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>0</v>
-          </cell>
-          <cell r="C146">
-            <v>0.66800000000000004</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>5</v>
-          </cell>
-          <cell r="C147">
-            <v>0.68</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>10</v>
-          </cell>
-          <cell r="C148">
-            <v>0.68500000000000005</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>11</v>
-          </cell>
-          <cell r="C149">
-            <v>-0.38</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>12</v>
-          </cell>
-          <cell r="C150">
-            <v>-0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>14</v>
-          </cell>
-          <cell r="C151">
-            <v>-0.70199999999999996</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>16</v>
-          </cell>
-          <cell r="C152">
-            <v>-0.80300000000000005</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>18</v>
-          </cell>
-          <cell r="C153">
-            <v>-0.69699999999999995</v>
-          </cell>
-          <cell r="I153">
-            <v>0</v>
-          </cell>
-          <cell r="J153">
-            <v>0.66800000000000004</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>20</v>
-          </cell>
-          <cell r="C154">
-            <v>-0.56299999999999994</v>
-          </cell>
-          <cell r="I154">
-            <v>5</v>
-          </cell>
-          <cell r="J154">
-            <v>0.68</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>21</v>
-          </cell>
-          <cell r="C155">
-            <v>-7.4999999999999997E-2</v>
-          </cell>
-          <cell r="I155">
-            <v>8.6999999999999993</v>
-          </cell>
-          <cell r="J155">
-            <v>0.68500000000000005</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>22</v>
-          </cell>
-          <cell r="C156">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="I156">
-            <v>12.727499999999999</v>
-          </cell>
-          <cell r="J156">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>25</v>
-          </cell>
-          <cell r="C157">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="I157">
-            <v>15.227499999999999</v>
-          </cell>
-          <cell r="J157">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>30</v>
-          </cell>
-          <cell r="C158">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="I158">
-            <v>17.727499999999999</v>
-          </cell>
-          <cell r="J158">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>35</v>
-          </cell>
-          <cell r="C159">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="I159">
-            <v>19.752499999999998</v>
-          </cell>
-          <cell r="J159">
-            <v>-0.65</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="I160">
-            <v>20</v>
-          </cell>
-          <cell r="J160">
-            <v>-0.56299999999999994</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>0</v>
-          </cell>
-          <cell r="C162">
-            <v>0.67100000000000004</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>5</v>
-          </cell>
-          <cell r="C163">
-            <v>0.66600000000000004</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>10</v>
-          </cell>
-          <cell r="C164">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>11</v>
-          </cell>
-          <cell r="C165">
-            <v>0.217</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>12</v>
-          </cell>
-          <cell r="C166">
-            <v>-0.19900000000000001</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>13</v>
-          </cell>
-          <cell r="C167">
-            <v>-0.42799999999999999</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>15</v>
-          </cell>
-          <cell r="C168">
-            <v>-0.61899999999999999</v>
-          </cell>
-          <cell r="I168">
-            <v>0</v>
-          </cell>
-          <cell r="J168">
-            <v>0.67100000000000004</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>16</v>
-          </cell>
-          <cell r="C169">
-            <v>-0.70199999999999996</v>
-          </cell>
-          <cell r="I169">
-            <v>5</v>
-          </cell>
-          <cell r="J169">
-            <v>0.66600000000000004</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>17</v>
-          </cell>
-          <cell r="C170">
-            <v>-0.62</v>
-          </cell>
-          <cell r="I170">
-            <v>9.5</v>
-          </cell>
-          <cell r="J170">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>19</v>
-          </cell>
-          <cell r="C171">
-            <v>-0.42099999999999999</v>
-          </cell>
-          <cell r="I171">
-            <v>13.49</v>
-          </cell>
-          <cell r="J171">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>20</v>
-          </cell>
-          <cell r="C172">
-            <v>-0.19500000000000001</v>
-          </cell>
-          <cell r="I172">
-            <v>15.99</v>
-          </cell>
-          <cell r="J172">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>21</v>
-          </cell>
-          <cell r="C173">
-            <v>0.16900000000000001</v>
-          </cell>
-          <cell r="I173">
-            <v>18.490000000000002</v>
-          </cell>
-          <cell r="J173">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>22</v>
-          </cell>
-          <cell r="C174">
-            <v>0.80500000000000005</v>
-          </cell>
-          <cell r="I174">
-            <v>22.69</v>
-          </cell>
-          <cell r="J174">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>27</v>
-          </cell>
-          <cell r="C175">
-            <v>0.8</v>
-          </cell>
-          <cell r="I175">
-            <v>22</v>
-          </cell>
-          <cell r="J175">
-            <v>0.80500000000000005</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>32</v>
-          </cell>
-          <cell r="C176">
-            <v>0.78700000000000003</v>
-          </cell>
-          <cell r="I176">
-            <v>27</v>
-          </cell>
-          <cell r="J176">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>0</v>
-          </cell>
-          <cell r="C179">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>5</v>
-          </cell>
-          <cell r="C180">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>10</v>
-          </cell>
-          <cell r="C181">
-            <v>0.76200000000000001</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>11</v>
-          </cell>
-          <cell r="C182">
-            <v>0.105</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>12</v>
-          </cell>
-          <cell r="C183">
-            <v>-0.48899999999999999</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>13</v>
-          </cell>
-          <cell r="C184">
-            <v>-0.83099999999999996</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>15</v>
-          </cell>
-          <cell r="C185">
-            <v>-0.93300000000000005</v>
-          </cell>
-          <cell r="I185">
-            <v>0</v>
-          </cell>
-          <cell r="J185">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>17</v>
-          </cell>
-          <cell r="C186">
-            <v>-0.83</v>
-          </cell>
-          <cell r="I186">
-            <v>5</v>
-          </cell>
-          <cell r="J186">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>18</v>
-          </cell>
-          <cell r="C187">
-            <v>-0.502</v>
-          </cell>
-          <cell r="I187">
-            <v>8.5</v>
-          </cell>
-          <cell r="J187">
-            <v>0.76200000000000001</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>19</v>
-          </cell>
-          <cell r="C188">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="I188">
-            <v>12.643000000000001</v>
-          </cell>
-          <cell r="J188">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>20</v>
-          </cell>
-          <cell r="C189">
-            <v>0.60899999999999999</v>
-          </cell>
-          <cell r="I189">
-            <v>15.143000000000001</v>
-          </cell>
-          <cell r="J189">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>25</v>
-          </cell>
-          <cell r="C190">
-            <v>0.6</v>
-          </cell>
-          <cell r="I190">
-            <v>17.643000000000001</v>
-          </cell>
-          <cell r="J190">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>30</v>
-          </cell>
-          <cell r="C191">
-            <v>0.58599999999999997</v>
-          </cell>
-          <cell r="I191">
-            <v>21.542999999999999</v>
-          </cell>
-          <cell r="J191">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="I192">
-            <v>25</v>
-          </cell>
-          <cell r="J192">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="I193">
-            <v>30</v>
-          </cell>
-          <cell r="J193">
-            <v>0.58599999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11870,7 +10905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11880,7 +10915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V859"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A289" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
@@ -12284,28 +11319,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="A1" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -12334,13 +11369,13 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="D3" s="50">
+      <c r="D3" s="53">
         <v>0</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="53"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
@@ -12357,7 +11392,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
       <c r="I4" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4" s="51"/>
       <c r="K4" s="51"/>
@@ -12375,7 +11410,7 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
@@ -12435,7 +11470,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="42">
         <f t="shared" ref="E7:E18" si="0">(C6+C7)/2</f>
@@ -12847,7 +11882,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="42">
         <f t="shared" si="0"/>
@@ -12937,7 +11972,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" s="42">
         <f t="shared" si="0"/>
@@ -12982,16 +12017,16 @@
       <c r="E19" s="44"/>
       <c r="F19" s="43"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="49"/>
+      <c r="H19" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="52"/>
       <c r="J19" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L19" s="43" t="e">
         <f>#REF!</f>
@@ -13007,13 +12042,13 @@
     </row>
     <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="50">
+      <c r="D20" s="53">
         <v>0.1</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="53"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
@@ -13030,10 +12065,10 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
@@ -13051,7 +12086,7 @@
         <v>-0.77600000000000002</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
@@ -13111,7 +12146,7 @@
         <v>-0.106</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="42">
         <f t="shared" ref="E24:E39" si="8">(C23+C24)/2</f>
@@ -13626,7 +12661,7 @@
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="53"/>
+      <c r="J35" s="49"/>
       <c r="K35" s="42"/>
       <c r="L35" s="43"/>
       <c r="M35" s="42"/>
@@ -13643,7 +12678,7 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="42">
         <f t="shared" si="8"/>
@@ -13734,7 +12769,7 @@
         <v>-0.77100000000000002</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" s="42">
         <f t="shared" si="8"/>
@@ -13763,16 +12798,16 @@
       <c r="E40" s="44"/>
       <c r="F40" s="43"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="49"/>
+      <c r="H40" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="52"/>
       <c r="J40" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K40" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L40" s="43" t="e">
         <f>#REF!</f>
@@ -13788,13 +12823,13 @@
     </row>
     <row r="41" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="23"/>
-      <c r="D41" s="50">
+      <c r="D41" s="53">
         <v>0.2</v>
       </c>
-      <c r="E41" s="50"/>
+      <c r="E41" s="53"/>
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
       <c r="L41" s="44"/>
@@ -13811,10 +12846,10 @@
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
@@ -13832,7 +12867,7 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -13888,7 +12923,7 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="42">
         <f t="shared" ref="E45:E55" si="16">(C44+C45)/2</f>
@@ -14190,7 +13225,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="42">
         <f t="shared" si="16"/>
@@ -14286,7 +13321,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E55" s="42">
         <f t="shared" si="16"/>
@@ -14484,13 +13519,13 @@
     </row>
     <row r="64" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C64" s="23"/>
-      <c r="D64" s="50">
+      <c r="D64" s="53">
         <v>0.3</v>
       </c>
-      <c r="E64" s="50"/>
+      <c r="E64" s="53"/>
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
@@ -14507,10 +13542,10 @@
       <c r="F65" s="51"/>
       <c r="G65" s="51"/>
       <c r="H65" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J65" s="51"/>
       <c r="K65" s="51"/>
@@ -14528,7 +13563,7 @@
         <v>0.193</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="43"/>
@@ -14584,7 +13619,7 @@
         <v>0.183</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" s="42">
         <f t="shared" ref="E68:E78" si="24">(C67+C68)/2</f>
@@ -14886,7 +13921,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" s="42">
         <f t="shared" si="24"/>
@@ -14982,7 +14017,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E78" s="42">
         <f t="shared" si="24"/>
@@ -15054,13 +14089,13 @@
     </row>
     <row r="80" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="50">
+      <c r="D80" s="53">
         <v>0.4</v>
       </c>
-      <c r="E80" s="50"/>
+      <c r="E80" s="53"/>
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
@@ -15077,10 +14112,10 @@
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J81" s="51"/>
       <c r="K81" s="51"/>
@@ -15098,7 +14133,7 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E82" s="43"/>
       <c r="F82" s="43"/>
@@ -15171,7 +14206,7 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" s="42">
         <f t="shared" ref="E84:E97" si="35">(C83+C84)/2</f>
@@ -15539,7 +14574,7 @@
         <v>-0.122</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" s="42">
         <f t="shared" si="35"/>
@@ -15663,7 +14698,7 @@
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="53"/>
+      <c r="J95" s="49"/>
       <c r="K95" s="42"/>
       <c r="L95" s="43"/>
       <c r="M95" s="42"/>
@@ -15711,7 +14746,7 @@
         <v>-0.96599999999999997</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E97" s="42">
         <f t="shared" si="35"/>
@@ -15742,16 +14777,16 @@
       <c r="E98" s="44"/>
       <c r="F98" s="43"/>
       <c r="G98" s="42"/>
-      <c r="H98" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I98" s="49"/>
+      <c r="H98" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="52"/>
       <c r="J98" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L98" s="43" t="e">
         <f>#REF!</f>
@@ -15767,13 +14802,13 @@
     </row>
     <row r="99" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B99" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C99" s="23"/>
-      <c r="D99" s="50">
+      <c r="D99" s="53">
         <v>0.5</v>
       </c>
-      <c r="E99" s="50"/>
+      <c r="E99" s="53"/>
       <c r="J99" s="44"/>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
@@ -15790,10 +14825,10 @@
       <c r="F100" s="51"/>
       <c r="G100" s="51"/>
       <c r="H100" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I100" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J100" s="51"/>
       <c r="K100" s="51"/>
@@ -15811,7 +14846,7 @@
         <v>-2.0259999999999998</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E101" s="43"/>
       <c r="F101" s="43"/>
@@ -15867,7 +14902,7 @@
         <v>-1.4259999999999999</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="42">
         <f t="shared" ref="E103:E116" si="40">(C102+C103)/2</f>
@@ -16289,7 +15324,7 @@
         <v>1.224</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" s="42">
         <f t="shared" si="40"/>
@@ -16423,7 +15458,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E116" s="42">
         <f t="shared" si="40"/>
@@ -16618,7 +15653,7 @@
         <f>SUM(F102:F124)</f>
         <v>30</v>
       </c>
-      <c r="G125" s="54">
+      <c r="G125" s="50">
         <f>SUM(G102:G124)</f>
         <v>-9.3380000000000027</v>
       </c>
@@ -16639,16 +15674,16 @@
       <c r="E126" s="44"/>
       <c r="F126" s="43"/>
       <c r="G126" s="42"/>
-      <c r="H126" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I126" s="49"/>
+      <c r="H126" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I126" s="52"/>
       <c r="J126" s="42">
         <f>G125</f>
         <v>-9.3380000000000027</v>
       </c>
       <c r="K126" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L126" s="43">
         <f>M121</f>
@@ -16664,13 +15699,13 @@
     </row>
     <row r="127" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B127" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C127" s="23"/>
-      <c r="D127" s="50">
+      <c r="D127" s="53">
         <v>0.6</v>
       </c>
-      <c r="E127" s="50"/>
+      <c r="E127" s="53"/>
       <c r="J127" s="44"/>
       <c r="K127" s="44"/>
       <c r="L127" s="44"/>
@@ -16687,10 +15722,10 @@
       <c r="F128" s="51"/>
       <c r="G128" s="51"/>
       <c r="H128" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I128" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J128" s="51"/>
       <c r="K128" s="51"/>
@@ -16708,7 +15743,7 @@
         <v>-1.266</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E129" s="43"/>
       <c r="F129" s="43"/>
@@ -16781,7 +15816,7 @@
         <v>-0.56599999999999995</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E131" s="42">
         <f t="shared" ref="E131:E145" si="51">(C130+C131)/2</f>
@@ -17238,7 +16273,7 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141" s="42">
         <f t="shared" si="51"/>
@@ -17298,7 +16333,7 @@
       </c>
       <c r="H142" s="23"/>
       <c r="I142" s="26"/>
-      <c r="J142" s="53"/>
+      <c r="J142" s="49"/>
       <c r="K142" s="42"/>
       <c r="L142" s="43"/>
       <c r="M142" s="42"/>
@@ -17375,7 +16410,7 @@
         <v>-0.52600000000000002</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E145" s="42">
         <f t="shared" si="51"/>
@@ -17404,16 +16439,16 @@
       <c r="E146" s="44"/>
       <c r="F146" s="43"/>
       <c r="G146" s="42"/>
-      <c r="H146" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I146" s="49"/>
+      <c r="H146" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146" s="52"/>
       <c r="J146" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K146" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L146" s="43" t="e">
         <f>#REF!</f>
@@ -17429,13 +16464,13 @@
     </row>
     <row r="147" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B147" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C147" s="23"/>
-      <c r="D147" s="50">
+      <c r="D147" s="53">
         <v>0.7</v>
       </c>
-      <c r="E147" s="50"/>
+      <c r="E147" s="53"/>
       <c r="J147" s="44"/>
       <c r="K147" s="44"/>
       <c r="L147" s="44"/>
@@ -17452,10 +16487,10 @@
       <c r="F148" s="51"/>
       <c r="G148" s="51"/>
       <c r="H148" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I148" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J148" s="51"/>
       <c r="K148" s="51"/>
@@ -17473,7 +16508,7 @@
         <v>-1.282</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E149" s="43"/>
       <c r="F149" s="43"/>
@@ -17529,7 +16564,7 @@
         <v>-1.0820000000000001</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E151" s="42">
         <f t="shared" ref="E151:E163" si="56">(C150+C151)/2</f>
@@ -17922,7 +16957,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161" s="42">
         <f t="shared" si="56"/>
@@ -18015,7 +17050,7 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E163" s="42">
         <f t="shared" si="56"/>
@@ -18084,13 +17119,13 @@
     </row>
     <row r="165" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B165" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C165" s="23"/>
-      <c r="D165" s="50">
+      <c r="D165" s="53">
         <v>0.8</v>
       </c>
-      <c r="E165" s="50"/>
+      <c r="E165" s="53"/>
       <c r="J165" s="44"/>
       <c r="K165" s="44"/>
       <c r="L165" s="44"/>
@@ -18107,10 +17142,10 @@
       <c r="F166" s="51"/>
       <c r="G166" s="51"/>
       <c r="H166" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I166" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J166" s="51"/>
       <c r="K166" s="51"/>
@@ -18128,7 +17163,7 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E167" s="43"/>
       <c r="F167" s="43"/>
@@ -18184,7 +17219,7 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" s="42">
         <f t="shared" ref="E169:E181" si="64">(C168+C169)/2</f>
@@ -18472,7 +17507,7 @@
         <v>-0.14299999999999999</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E177" s="42">
         <f t="shared" si="64"/>
@@ -18657,7 +17692,7 @@
         <v>-1.2430000000000001</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E181" s="42">
         <f t="shared" si="64"/>
@@ -18849,7 +17884,7 @@
         <f>SUM(F168:F188)</f>
         <v>27</v>
       </c>
-      <c r="G189" s="54">
+      <c r="G189" s="50">
         <f>SUM(G168:G188)</f>
         <v>-7.1879999999999997</v>
       </c>
@@ -18870,16 +17905,16 @@
       <c r="E190" s="44"/>
       <c r="F190" s="43"/>
       <c r="G190" s="42"/>
-      <c r="H190" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I190" s="49"/>
+      <c r="H190" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I190" s="52"/>
       <c r="J190" s="42">
         <f>G189</f>
         <v>-7.1879999999999997</v>
       </c>
       <c r="K190" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L190" s="43">
         <f>M187</f>
@@ -18895,13 +17930,13 @@
     </row>
     <row r="191" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B191" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C191" s="23"/>
-      <c r="D191" s="50">
+      <c r="D191" s="53">
         <v>0.9</v>
       </c>
-      <c r="E191" s="50"/>
+      <c r="E191" s="53"/>
       <c r="J191" s="44"/>
       <c r="K191" s="44"/>
       <c r="L191" s="44"/>
@@ -18918,7 +17953,7 @@
         <v>-1.421</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E192" s="43"/>
       <c r="F192" s="43"/>
@@ -18974,7 +18009,7 @@
         <v>-0.90100000000000002</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" s="42">
         <f t="shared" ref="E194:E208" si="70">(C193+C194)/2</f>
@@ -19275,7 +18310,7 @@
         <v>-0.55100000000000005</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E202" s="42">
         <f t="shared" si="70"/>
@@ -19547,7 +18582,7 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E208" s="42">
         <f t="shared" si="70"/>
@@ -19603,13 +18638,13 @@
     </row>
     <row r="210" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B210" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C210" s="23"/>
-      <c r="D210" s="50">
+      <c r="D210" s="53">
         <v>1</v>
       </c>
-      <c r="E210" s="50"/>
+      <c r="E210" s="53"/>
       <c r="J210" s="44"/>
       <c r="K210" s="44"/>
       <c r="L210" s="44"/>
@@ -19626,7 +18661,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E211" s="43"/>
       <c r="F211" s="43"/>
@@ -19682,7 +18717,7 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E213" s="42">
         <f t="shared" ref="E213:E223" si="76">(C212+C213)/2</f>
@@ -19983,7 +19018,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E221" s="42">
         <f t="shared" si="76"/>
@@ -20078,7 +19113,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="D223" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E223" s="42">
         <f t="shared" si="76"/>
@@ -20150,13 +19185,13 @@
     </row>
     <row r="225" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B225" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C225" s="23"/>
-      <c r="D225" s="50">
+      <c r="D225" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E225" s="50"/>
+      <c r="E225" s="53"/>
       <c r="J225" s="44"/>
       <c r="K225" s="44"/>
       <c r="L225" s="44"/>
@@ -20173,7 +19208,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E226" s="43"/>
       <c r="F226" s="43"/>
@@ -20229,7 +19264,7 @@
         <v>0.29399999999999998</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228" s="42">
         <f t="shared" ref="E228:E239" si="82">(C227+C228)/2</f>
@@ -20517,7 +19552,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E236" s="42">
         <f t="shared" si="82"/>
@@ -20612,7 +19647,7 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E238" s="42">
         <f t="shared" si="82"/>
@@ -20730,13 +19765,13 @@
     </row>
     <row r="241" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B241" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C241" s="23"/>
-      <c r="D241" s="50">
+      <c r="D241" s="53">
         <v>1.2</v>
       </c>
-      <c r="E241" s="50"/>
+      <c r="E241" s="53"/>
       <c r="J241" s="44"/>
       <c r="K241" s="44"/>
       <c r="L241" s="44"/>
@@ -20753,7 +19788,7 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="D242" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E242" s="43"/>
       <c r="F242" s="43"/>
@@ -20809,7 +19844,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" s="42">
         <f t="shared" ref="E244:E254" si="88">(C243+C244)/2</f>
@@ -21096,7 +20131,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="D252" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E252" s="42">
         <f t="shared" si="88"/>
@@ -21190,7 +20225,7 @@
         <v>0.371</v>
       </c>
       <c r="D254" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E254" s="42">
         <f t="shared" si="88"/>
@@ -21264,13 +20299,13 @@
     </row>
     <row r="256" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B256" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C256" s="23"/>
-      <c r="D256" s="55">
+      <c r="D256" s="54">
         <v>1.3</v>
       </c>
-      <c r="E256" s="55"/>
+      <c r="E256" s="54"/>
       <c r="J256" s="44"/>
       <c r="K256" s="44"/>
       <c r="L256" s="44"/>
@@ -21287,10 +20322,10 @@
       <c r="F257" s="51"/>
       <c r="G257" s="51"/>
       <c r="H257" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I257" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J257" s="51"/>
       <c r="K257" s="51"/>
@@ -21308,7 +20343,7 @@
         <v>0.441</v>
       </c>
       <c r="D258" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E258" s="43"/>
       <c r="F258" s="43"/>
@@ -21396,7 +20431,7 @@
         <v>-0.129</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E261" s="42">
         <f t="shared" si="94"/>
@@ -22131,7 +21166,7 @@
         <v>0.45600000000000002</v>
       </c>
       <c r="D279" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E279" s="42">
         <f t="shared" si="94"/>
@@ -22273,13 +21308,13 @@
     </row>
     <row r="283" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B283" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C283" s="23"/>
-      <c r="D283" s="50">
+      <c r="D283" s="53">
         <v>1.4039999999999999</v>
       </c>
-      <c r="E283" s="50"/>
+      <c r="E283" s="53"/>
       <c r="J283" s="44"/>
       <c r="K283" s="44"/>
       <c r="L283" s="44"/>
@@ -22296,10 +21331,10 @@
       <c r="F284" s="51"/>
       <c r="G284" s="51"/>
       <c r="H284" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I284" s="51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J284" s="51"/>
       <c r="K284" s="51"/>
@@ -22317,7 +21352,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="D285" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E285" s="43"/>
       <c r="F285" s="43"/>
@@ -22373,7 +21408,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E287" s="42">
         <f t="shared" ref="E287:E301" si="100">(C286+C287)/2</f>
@@ -22842,7 +21877,7 @@
         <v>0.51</v>
       </c>
       <c r="D299" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E299" s="42">
         <f t="shared" si="100"/>
@@ -22931,7 +21966,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="D301" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E301" s="42">
         <f t="shared" si="100"/>
@@ -23083,16 +22118,16 @@
       <c r="E308" s="44"/>
       <c r="F308" s="43"/>
       <c r="G308" s="42"/>
-      <c r="H308" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I308" s="49"/>
+      <c r="H308" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I308" s="52"/>
       <c r="J308" s="43">
         <f>G307</f>
         <v>9.4312499999999986</v>
       </c>
       <c r="K308" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L308" s="43">
         <f>M307</f>
@@ -26342,30 +25377,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B284:G284"/>
-    <mergeCell ref="I284:M284"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="B257:G257"/>
-    <mergeCell ref="I257:M257"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="I166:M166"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="I148:M148"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="H146:I146"/>
     <mergeCell ref="H98:I98"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="B100:G100"/>
@@ -26377,16 +25398,30 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="I21:M21"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="I128:M128"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="I148:M148"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I166:M166"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B284:G284"/>
+    <mergeCell ref="I284:M284"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="I257:M257"/>
+    <mergeCell ref="D283:E283"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -26422,15 +25457,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -26482,25 +25517,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -26515,10 +25550,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H2" s="3">
         <v>0.40200000000000002</v>
@@ -26538,7 +25573,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -26553,10 +25588,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3">
         <v>0.40200000000000002</v>
@@ -26576,7 +25611,7 @@
     </row>
     <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -26591,10 +25626,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3">
         <v>0.40200000000000002</v>
@@ -26614,7 +25649,7 @@
     </row>
     <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -26629,10 +25664,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3">
         <v>0.40200000000000002</v>
@@ -26652,7 +25687,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -26667,10 +25702,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3">
         <v>0.40200000000000002</v>
@@ -26690,7 +25725,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -26705,10 +25740,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H7" s="3">
         <v>0.40200000000000002</v>
@@ -26728,7 +25763,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -26743,10 +25778,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" s="3">
         <v>0.40200000000000002</v>
@@ -26766,7 +25801,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="37">
         <v>700</v>
@@ -26781,10 +25816,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H9" s="3">
         <v>0.40200000000000002</v>
@@ -26804,7 +25839,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="37">
         <v>800</v>
@@ -26819,10 +25854,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" s="3">
         <v>0.40200000000000002</v>
@@ -26842,7 +25877,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="37">
         <v>900</v>
@@ -26857,10 +25892,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3">
         <v>0.40200000000000002</v>
@@ -26880,7 +25915,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -26895,10 +25930,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H12" s="3">
         <v>0.40200000000000002</v>
@@ -26918,7 +25953,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="37">
         <v>1100</v>
@@ -26933,10 +25968,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H13" s="3">
         <v>0.40200000000000002</v>
@@ -26956,7 +25991,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="37">
         <v>1200</v>
@@ -26971,10 +26006,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="3">
         <v>0.40200000000000002</v>
@@ -26994,7 +26029,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="37">
         <v>1300</v>
@@ -27009,10 +26044,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3">
         <v>0.40200000000000002</v>
@@ -27032,7 +26067,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="37">
         <v>1404</v>
@@ -27047,10 +26082,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3">
         <v>0.40200000000000002</v>
@@ -27123,7 +26158,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27149,7 +26184,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -27166,7 +26201,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6">
         <v>-1.6</v>
@@ -27181,13 +26216,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -27213,18 +26248,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27232,7 +26267,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27240,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27248,7 +26283,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27256,15 +26291,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27272,7 +26307,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27280,7 +26315,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -27288,7 +26323,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -27296,7 +26331,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -27304,7 +26339,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -27312,7 +26347,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -27320,7 +26355,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -27328,7 +26363,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -27336,7 +26371,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -27344,7 +26379,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27352,7 +26387,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27360,7 +26395,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27368,7 +26403,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27376,7 +26411,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27384,7 +26419,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -27392,7 +26427,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -27400,7 +26435,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -27413,8 +26448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27426,82 +26461,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +26561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -27538,18 +26573,18 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27557,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27565,7 +26600,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27573,7 +26608,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27581,7 +26616,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -27589,7 +26624,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -27597,7 +26632,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -27605,7 +26640,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27613,10 +26648,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27624,7 +26659,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27632,7 +26667,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27640,7 +26675,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27648,7 +26683,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -27656,31 +26691,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27688,7 +26723,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27696,7 +26731,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -27704,15 +26739,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27720,7 +26755,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -27728,7 +26763,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27736,7 +26771,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -27744,7 +26779,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -27752,7 +26787,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27760,7 +26795,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
